--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Ontwerpen moederbord</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -737,20 +740,28 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -787,7 +798,9 @@
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -824,7 +837,9 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:41">
@@ -883,7 +898,9 @@
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AH18" s="1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Ontwerpen moederbord</t>
   </si>
@@ -138,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -185,6 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,17 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:BO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="78" width="2.85546875" customWidth="1"/>
+    <col min="2" max="46" width="2.85546875" customWidth="1"/>
+    <col min="47" max="47" width="2.85546875" style="6" customWidth="1"/>
+    <col min="48" max="66" width="2.85546875" customWidth="1"/>
+    <col min="67" max="67" width="2.85546875" style="3" customWidth="1"/>
+    <col min="68" max="78" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:66">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -549,8 +560,43 @@
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
-    </row>
-    <row r="2" spans="1:41">
+      <c r="AP1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+    </row>
+    <row r="2" spans="1:66">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -611,7 +657,7 @@
       <c r="AN2" s="5"/>
       <c r="AO2" s="5"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:66">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -736,7 +782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:66">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -747,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:66">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -755,7 +801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:66">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -765,7 +811,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:66">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -785,7 +831,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:66">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -794,19 +840,21 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:66">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:66">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -826,14 +874,14 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:66">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:66">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -842,7 +890,7 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:66">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -862,13 +910,13 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:66">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:66">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -879,7 +927,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:66">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -918,7 +966,12 @@
       <c r="AO19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="21">
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="BJ1:BN1"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="B1:F1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="28740" windowHeight="13245"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-11-26" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Ontwerpen moederbord</t>
   </si>
@@ -188,10 +186,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +492,7 @@
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="46" width="2.85546875" customWidth="1"/>
-    <col min="47" max="47" width="2.85546875" style="6" customWidth="1"/>
+    <col min="47" max="47" width="2.85546875" style="5" customWidth="1"/>
     <col min="48" max="66" width="2.85546875" customWidth="1"/>
     <col min="67" max="67" width="2.85546875" style="3" customWidth="1"/>
     <col min="68" max="78" width="2.85546875" customWidth="1"/>
@@ -504,158 +502,158 @@
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5" t="s">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5" t="s">
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5" t="s">
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5" t="s">
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5" t="s">
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5" t="s">
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5" t="s">
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
     </row>
     <row r="2" spans="1:66">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5" t="s">
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="4" t="s">
@@ -808,28 +806,62 @@
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:66">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:66">
       <c r="A8" t="s">
@@ -850,8 +882,12 @@
       <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:66">
@@ -888,27 +924,59 @@
       <c r="M12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:66">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:66">
       <c r="A14" t="s">
@@ -949,7 +1017,9 @@
       <c r="U18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
@@ -967,11 +1037,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="BJ1:BN1"/>
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AK2:AO2"/>
     <mergeCell ref="B1:F1"/>
@@ -988,32 +1053,13 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="BJ1:BN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>